--- a/demo.xlsx
+++ b/demo.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/git/excel-tutorial-with-dataDrivenFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="144">
   <si>
     <t>Bhanu</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Test Scenarios</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>QBO Workflow</t>
   </si>
   <si>
@@ -381,9 +375,6 @@
     <t>Payment Test</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -466,13 +457,20 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -637,7 +635,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -645,6 +642,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -929,42 +927,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>142</v>
+      <c r="G1" s="20" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -973,21 +969,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>143</v>
+      <c r="F2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -996,21 +992,21 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1019,21 +1015,21 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1042,16 +1038,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>141</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1069,69 +1065,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>61</v>
+      <c r="C1" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>116</v>
-      </c>
+      <c r="C5" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1150,55 +1144,55 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1212,7 +1206,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1225,7 +1219,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1238,7 +1232,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1251,7 +1245,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1264,20 +1258,20 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1290,7 +1284,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -1303,7 +1297,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -1316,7 +1310,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1327,7 +1321,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1338,7 +1332,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
@@ -1351,7 +1345,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
@@ -1364,7 +1358,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
@@ -1377,7 +1371,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3">
@@ -1390,7 +1384,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3">
@@ -1401,7 +1395,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3">
@@ -1412,7 +1406,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3">
@@ -1423,7 +1417,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3">
@@ -1451,62 +1445,62 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="29.1640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="7:12" x14ac:dyDescent="0.2">
       <c r="I3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="7:12" x14ac:dyDescent="0.2">
       <c r="H4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G5" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
         <v>58.088999999999999</v>
@@ -1517,7 +1511,7 @@
     </row>
     <row r="6" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="7">
         <v>9.952</v>
@@ -1528,7 +1522,7 @@
     </row>
     <row r="7" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" s="7">
         <v>12.162000000000001</v>
@@ -1539,7 +1533,7 @@
     </row>
     <row r="8" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>12.6</v>
@@ -1553,7 +1547,7 @@
     </row>
     <row r="9" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>0.91100000000000003</v>
@@ -1567,7 +1561,7 @@
     </row>
     <row r="10" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>3.1</v>
@@ -1581,7 +1575,7 @@
     </row>
     <row r="11" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>1.5</v>
@@ -1595,7 +1589,7 @@
     </row>
     <row r="13" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
         <v>69.686999999999998</v>
@@ -1606,7 +1600,7 @@
     </row>
     <row r="14" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
         <v>5.3849999999999998</v>
@@ -1617,7 +1611,7 @@
     </row>
     <row r="15" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I15" s="7">
         <v>12.561</v>
@@ -1628,7 +1622,7 @@
     </row>
     <row r="16" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I16" s="7">
         <v>25.802</v>
@@ -1639,7 +1633,7 @@
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G17" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I17" s="7">
         <v>20.119</v>
@@ -1650,7 +1644,7 @@
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G19" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I19" s="8">
         <v>50.216000000000001</v>
@@ -1661,7 +1655,7 @@
     </row>
     <row r="20" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G20" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="8">
         <v>22.343</v>
@@ -1672,7 +1666,7 @@
     </row>
     <row r="21" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G21" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I21" s="8">
         <v>23795.5</v>
@@ -1683,7 +1677,7 @@
     </row>
     <row r="22" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G22" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I22" s="8">
         <v>2.4169999999999998</v>
@@ -1694,7 +1688,7 @@
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G23" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I23" s="8">
         <v>9.1199999999999992</v>
@@ -1705,18 +1699,18 @@
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G25" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I25" s="8">
         <v>2.8410000000000002</v>
@@ -1727,7 +1721,7 @@
     </row>
     <row r="26" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G26" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I26" s="8">
         <v>3.0840000000000001</v>
@@ -1738,7 +1732,7 @@
     </row>
     <row r="27" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G27" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I27" s="8">
         <v>4.617</v>
@@ -1749,7 +1743,7 @@
     </row>
     <row r="28" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G28" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I28" s="8">
         <v>15.486000000000001</v>
@@ -1757,7 +1751,7 @@
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G29" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I29" s="8">
         <v>7.3209999999999997</v>
@@ -1765,7 +1759,7 @@
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G30" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I30" s="8">
         <v>17.632000000000001</v>
@@ -1776,7 +1770,7 @@
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G31" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I31" s="8">
         <v>40.981999999999999</v>
@@ -1787,7 +1781,7 @@
     </row>
     <row r="32" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G32" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I32" s="8">
         <v>38.549100000000003</v>
@@ -1798,7 +1792,7 @@
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G33" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I33" s="8">
         <v>808.50900000000001</v>
@@ -1809,7 +1803,7 @@
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G34" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I34" s="8">
         <v>112.70699999999999</v>
@@ -1817,7 +1811,7 @@
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G35" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I35" s="8">
         <v>205.98500000000001</v>
@@ -1825,7 +1819,7 @@
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G36" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I36" s="8">
         <v>1610.019</v>
@@ -1833,7 +1827,7 @@
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G37" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I37" s="8">
         <v>2011.0350000000001</v>
@@ -1855,14 +1849,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="42.83203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="51.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="44.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:7" ht="19" x14ac:dyDescent="0.25">
       <c r="D2" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -1870,100 +1864,100 @@
     </row>
     <row r="3" spans="4:7" ht="18" x14ac:dyDescent="0.2">
       <c r="D3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="13" t="s">
+    </row>
+    <row r="4" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="14" t="s">
+    </row>
+    <row r="5" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="15" t="s">
+    </row>
+    <row r="6" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
+    <row r="7" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D7" s="21">
+        <v>2</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15" t="s">
+      <c r="F7" s="21" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D7" s="14">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="14" t="s">
+    </row>
+    <row r="8" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="15" t="s">
+    </row>
+    <row r="9" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15" t="s">
+    <row r="10" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15" t="s">
+    <row r="11" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15" t="s">
+    <row r="12" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="14" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="4:7" ht="19" x14ac:dyDescent="0.25">
@@ -1971,113 +1965,113 @@
         <v>3</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D14" s="21">
+        <v>4</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="F14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D14" s="14">
-        <v>4</v>
-      </c>
-      <c r="E14" s="14" t="s">
+    <row r="15" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="15" t="s">
+    </row>
+    <row r="17" spans="4:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D19" s="21">
+        <v>5</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D20" s="21"/>
+      <c r="E20" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D19" s="14">
-        <v>5</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D21" s="21"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D22" s="21"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="4:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="D23" s="21">
+        <v>6</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D20" s="14"/>
-      <c r="E20" s="10" t="s">
+      <c r="G23" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D21" s="14"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D22" s="14"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D23" s="14">
-        <v>6</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="4:7" ht="18" x14ac:dyDescent="0.2">
@@ -2094,7 +2088,7 @@
     </row>
     <row r="27" spans="4:7" ht="19" x14ac:dyDescent="0.25">
       <c r="D27" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -2102,258 +2096,258 @@
     </row>
     <row r="28" spans="4:7" ht="18" x14ac:dyDescent="0.2">
       <c r="D28" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="13" t="s">
+    </row>
+    <row r="29" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D29" s="21">
+        <v>1</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="F29" s="21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D29" s="14">
-        <v>1</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="G29" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="14" t="s">
+    </row>
+    <row r="30" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D32" s="21">
+        <v>2</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="F32" s="21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D32" s="14">
-        <v>2</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="G32" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="14" t="s">
+    </row>
+    <row r="33" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="15" t="s">
+    </row>
+    <row r="34" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D35" s="21">
+        <v>3</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15" t="s">
+      <c r="F35" s="21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D35" s="14">
-        <v>3</v>
-      </c>
-      <c r="E35" s="14" t="s">
+      <c r="G35" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="14" t="s">
+    </row>
+    <row r="36" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="15" t="s">
+    </row>
+    <row r="38" spans="4:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15" t="s">
+    <row r="39" spans="4:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="D39" s="21">
+        <v>4</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="17" t="s">
+      <c r="F39" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="4:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="4:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D39" s="14">
-        <v>4</v>
-      </c>
-      <c r="E39" s="14" t="s">
+    <row r="46" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D46" s="21">
+        <v>5</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15" t="s">
+      <c r="F46" s="21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="17" t="s">
+      <c r="G46" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D46" s="14">
-        <v>5</v>
-      </c>
-      <c r="E46" s="14" t="s">
+    <row r="47" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G46" s="15" t="s">
+    </row>
+    <row r="48" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D48" s="21">
+        <v>6</v>
+      </c>
+      <c r="E48" s="21" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="47" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15" t="s">
+      <c r="F48" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D48" s="14">
-        <v>6</v>
-      </c>
-      <c r="E48" s="14" t="s">
+    <row r="50" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D50" s="21">
+        <v>7</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15" t="s">
+      <c r="F50" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D52" s="21">
+        <v>8</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D50" s="14">
-        <v>7</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D52" s="14">
-        <v>8</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>78</v>
+      <c r="F52" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="15" t="s">
-        <v>79</v>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="4:7" ht="19" x14ac:dyDescent="0.25">
@@ -2361,55 +2355,55 @@
         <v>9</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>109</v>
+        <v>89</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="D35:D38"/>
     <mergeCell ref="F32:F34"/>
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="D29:D31"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F7:F12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
   <si>
     <t>Bhanu</t>
   </si>
@@ -470,7 +470,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -579,13 +579,49 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -620,9 +656,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -630,7 +665,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -638,11 +672,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -925,130 +966,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.1640625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>123</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="16" t="s">
         <v>131</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="16" t="s">
         <v>134</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="16" t="s">
         <v>133</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="16" t="s">
         <v>132</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>141</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1063,69 +1116,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="24" t="s">
         <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="24" t="s">
         <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1143,291 +1201,291 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>50.216000000000001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>30.904</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
         <v>22.343</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>7.1230000000000002</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>23795.5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>23.795000000000002</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
         <v>2.4169999999999998</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>6.1769999999999996</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <v>9.1199999999999992</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>6.54</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
         <v>2.8410000000000002</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>10.561999999999999</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
         <v>3.0840000000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>10.561999999999999</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
         <v>4.617</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>11.618</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>15.486000000000001</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>7.3209999999999997</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
         <v>17.632000000000001</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>75.206999999999994</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
         <v>40.981999999999999</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>125.389</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
         <v>38.549100000000003</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>823.18499999999995</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
         <v>808.50900000000001</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1669.0419999999999</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
         <v>112.70699999999999</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
         <v>205.98500000000001</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
         <v>1610.019</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
         <v>2011.0350000000001</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1454,382 +1512,382 @@
   </cols>
   <sheetData>
     <row r="2" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>58.088999999999999</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>54.862000000000002</v>
       </c>
     </row>
     <row r="6" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>9.952</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>25.219000000000001</v>
       </c>
     </row>
     <row r="7" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>12.162000000000001</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>20.364999999999998</v>
       </c>
     </row>
     <row r="8" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>12.6</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>21.2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>26.681999999999999</v>
       </c>
     </row>
     <row r="9" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.91100000000000003</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>20.942</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>15.946</v>
       </c>
     </row>
     <row r="10" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>3.1</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>25.093</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>33.088999999999999</v>
       </c>
     </row>
     <row r="11" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>1.5</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>4.0579999999999998</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>12.068</v>
       </c>
     </row>
     <row r="13" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>69.686999999999998</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>57.131999999999998</v>
       </c>
     </row>
     <row r="14" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>5.3849999999999998</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>41.445999999999998</v>
       </c>
     </row>
     <row r="15" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>12.561</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>15.946</v>
       </c>
     </row>
     <row r="16" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>25.802</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>46.66</v>
       </c>
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>20.119</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>65.403000000000006</v>
       </c>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>50.216000000000001</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>30.904</v>
       </c>
     </row>
     <row r="20" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>22.343</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>7.1230000000000002</v>
       </c>
     </row>
     <row r="21" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>23795.5</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>23.795000000000002</v>
       </c>
     </row>
     <row r="22" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>2.4169999999999998</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>6.1769999999999996</v>
       </c>
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>9.1199999999999992</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <v>6.54</v>
       </c>
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>2.8410000000000002</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="7">
         <v>10.561999999999999</v>
       </c>
     </row>
     <row r="26" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>3.0840000000000001</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="7">
         <v>10.561999999999999</v>
       </c>
     </row>
     <row r="27" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>4.617</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>11.618</v>
       </c>
     </row>
     <row r="28" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <v>15.486000000000001</v>
       </c>
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <v>7.3209999999999997</v>
       </c>
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <v>17.632000000000001</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <v>75.206999999999994</v>
       </c>
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <v>40.981999999999999</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="7">
         <v>125.389</v>
       </c>
     </row>
     <row r="32" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <v>38.549100000000003</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <v>823.18499999999995</v>
       </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <v>808.50900000000001</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <v>1669.0419999999999</v>
       </c>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <v>112.70699999999999</v>
       </c>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <v>205.98500000000001</v>
       </c>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <v>1610.019</v>
       </c>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <v>2011.0350000000001</v>
       </c>
     </row>
@@ -1855,528 +1913,528 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D4" s="21">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="14" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="14" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D7" s="21">
+      <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="14" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="14" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="14" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="14" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="14" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>3</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D14" s="21">
+      <c r="D14" s="15">
         <v>4</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="14" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="14" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="10"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="12"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D19" s="21">
+      <c r="D19" s="15">
         <v>5</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="14" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D20" s="21"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="14" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D21" s="21"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="14" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D22" s="21"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="10"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D23" s="21">
+      <c r="D23" s="15">
         <v>6</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="14" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="25" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D26" s="10"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D29" s="21">
+      <c r="D29" s="15">
         <v>1</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="14" t="s">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="14" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D32" s="21">
+      <c r="D32" s="15">
         <v>2</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="14" t="s">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="14" t="s">
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D35" s="21">
+      <c r="D35" s="15">
         <v>3</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="14" t="s">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="14" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="16" t="s">
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D39" s="21">
+      <c r="D39" s="15">
         <v>4</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="16"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="14" t="s">
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="41" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="14" t="s">
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="14" t="s">
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="16"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="14"/>
     </row>
     <row r="44" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="16"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="14"/>
     </row>
     <row r="45" spans="4:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="16" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D46" s="21">
+      <c r="D46" s="15">
         <v>5</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="14" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="48" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D48" s="21">
+      <c r="D48" s="15">
         <v>6</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="14" t="s">
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D50" s="21">
+      <c r="D50" s="15">
         <v>7</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="14" t="s">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D52" s="21">
+      <c r="D52" s="15">
         <v>8</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="14" t="s">
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="54" spans="4:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="D54" s="10">
+      <c r="D54" s="8">
         <v>9</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="12" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="F7:F12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="D35:D38"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="D4:D6"/>
@@ -2393,17 +2451,17 @@
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="F39:F45"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="D19:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>
